--- a/Version2/sample.xlsx
+++ b/Version2/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JupyterN\VectorSymbolicArchitectures\Version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBE3D2B-A964-43BE-816D-81A6A915DFAD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE34312-E78F-4319-8EE0-0A69D12166CB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="10211" xr2:uid="{F790CF26-CA6A-49AA-84C8-390D6428DC29}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
   <si>
     <t>color</t>
   </si>
@@ -120,24 +120,9 @@
     <t>worms</t>
   </si>
   <si>
-    <t>Apple_feature</t>
-  </si>
-  <si>
-    <t>Apple_val</t>
-  </si>
-  <si>
     <t>Concepts</t>
   </si>
   <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Bowl</t>
-  </si>
-  <si>
-    <t>Bowl_feature</t>
-  </si>
-  <si>
     <t>eat</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t>cup</t>
   </si>
   <si>
-    <t>Bowl_val</t>
-  </si>
-  <si>
     <t>cup_feature</t>
   </si>
   <si>
@@ -352,6 +334,27 @@
   </si>
   <si>
     <t>round_end</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>apple_feature</t>
+  </si>
+  <si>
+    <t>apple_val</t>
+  </si>
+  <si>
+    <t>bowl_feature</t>
+  </si>
+  <si>
+    <t>bowl_val</t>
   </si>
 </sst>
 </file>
@@ -713,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF85D927-26DA-4A2C-99F1-700451991764}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12:S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05"/>
@@ -729,66 +732,66 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
         <v>87</v>
       </c>
-      <c r="N2" t="s">
-        <v>93</v>
-      </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="R2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="S2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -806,19 +809,19 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -830,24 +833,24 @@
         <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="R3" t="s">
         <v>25</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -859,54 +862,54 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
         <v>11</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P4" t="s">
         <v>11</v>
       </c>
       <c r="Q4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="R4" t="s">
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -918,54 +921,54 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
         <v>25</v>
       </c>
       <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>43</v>
-      </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -977,54 +980,54 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N6" t="s">
         <v>11</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s">
         <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -1036,54 +1039,54 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
         <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
         <v>16</v>
       </c>
       <c r="Q7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -1095,31 +1098,31 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
         <v>16</v>
@@ -1128,21 +1131,21 @@
         <v>17</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="R8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1151,57 +1154,57 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P9" t="s">
         <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="R9" t="s">
         <v>25</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1210,55 +1213,58 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
         <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R10" t="s">
         <v>11</v>
       </c>
       <c r="S10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1269,37 +1275,37 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s">
         <v>16</v>
       </c>
       <c r="Q11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="R11" t="s">
         <v>11</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1313,37 +1319,37 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1357,19 +1363,19 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P13" t="s">
         <v>25</v>
       </c>
       <c r="Q13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1383,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1406,10 +1412,10 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:19">
